--- a/Code/Results/Cases/Case_6_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010481691051035</v>
+        <v>1.015905875585149</v>
       </c>
       <c r="D2">
-        <v>1.030481644663472</v>
+        <v>1.035178536394344</v>
       </c>
       <c r="E2">
-        <v>1.014863113917108</v>
+        <v>1.020131173310555</v>
       </c>
       <c r="F2">
-        <v>1.030783609696715</v>
+        <v>1.035746895909417</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051619318259581</v>
+        <v>1.053856467611462</v>
       </c>
       <c r="J2">
-        <v>1.032353353288455</v>
+        <v>1.037621033997778</v>
       </c>
       <c r="K2">
-        <v>1.041532047345538</v>
+        <v>1.046168603819193</v>
       </c>
       <c r="L2">
-        <v>1.026119193783621</v>
+        <v>1.03131699605703</v>
       </c>
       <c r="M2">
-        <v>1.041830112711837</v>
+        <v>1.046729708681821</v>
       </c>
       <c r="N2">
-        <v>1.033819413462709</v>
+        <v>1.039094574882851</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017442030339666</v>
+        <v>1.020236330643866</v>
       </c>
       <c r="D3">
-        <v>1.036087964679315</v>
+        <v>1.038636868140546</v>
       </c>
       <c r="E3">
-        <v>1.020665326085803</v>
+        <v>1.023592034248932</v>
       </c>
       <c r="F3">
-        <v>1.037213637376482</v>
+        <v>1.039876271165938</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054174980255133</v>
+        <v>1.055422500935331</v>
       </c>
       <c r="J3">
-        <v>1.037468243370106</v>
+        <v>1.040190133062411</v>
       </c>
       <c r="K3">
-        <v>1.046279011902658</v>
+        <v>1.048798144726009</v>
       </c>
       <c r="L3">
-        <v>1.031040445685045</v>
+        <v>1.033931693609606</v>
       </c>
       <c r="M3">
-        <v>1.047391514671956</v>
+        <v>1.05002313698474</v>
       </c>
       <c r="N3">
-        <v>1.038941567274962</v>
+        <v>1.041667322362836</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021818418311764</v>
+        <v>1.022983135710683</v>
       </c>
       <c r="D4">
-        <v>1.0396150336285</v>
+        <v>1.04083271269967</v>
       </c>
       <c r="E4">
-        <v>1.024318877178477</v>
+        <v>1.025792882698019</v>
       </c>
       <c r="F4">
-        <v>1.041262496303117</v>
+        <v>1.042500562010986</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055767779914342</v>
+        <v>1.056405659595438</v>
       </c>
       <c r="J4">
-        <v>1.040680007284097</v>
+        <v>1.041816658170019</v>
       </c>
       <c r="K4">
-        <v>1.049257741383164</v>
+        <v>1.050462087836464</v>
       </c>
       <c r="L4">
-        <v>1.034132393939433</v>
+        <v>1.035589666186752</v>
       </c>
       <c r="M4">
-        <v>1.050887174791748</v>
+        <v>1.052111737560869</v>
       </c>
       <c r="N4">
-        <v>1.042157892262105</v>
+        <v>1.043296157322662</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023629344607761</v>
+        <v>1.024125102035095</v>
       </c>
       <c r="D5">
-        <v>1.041074913339132</v>
+        <v>1.041746113218839</v>
       </c>
       <c r="E5">
-        <v>1.025831899387452</v>
+        <v>1.026709182374561</v>
       </c>
       <c r="F5">
-        <v>1.042939232964511</v>
+        <v>1.043592770483927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056423428723923</v>
+        <v>1.056811923595129</v>
       </c>
       <c r="J5">
-        <v>1.042007932506249</v>
+        <v>1.042492112505334</v>
       </c>
       <c r="K5">
-        <v>1.050488818391047</v>
+        <v>1.051152871670115</v>
       </c>
       <c r="L5">
-        <v>1.035411197977646</v>
+        <v>1.036278798402498</v>
       </c>
       <c r="M5">
-        <v>1.052333315463104</v>
+        <v>1.052979924696424</v>
       </c>
       <c r="N5">
-        <v>1.043487703290388</v>
+        <v>1.043972570880608</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023931756093412</v>
+        <v>1.024316105731672</v>
       </c>
       <c r="D6">
-        <v>1.041318723414557</v>
+        <v>1.041898915072933</v>
       </c>
       <c r="E6">
-        <v>1.026084631493221</v>
+        <v>1.026862517362826</v>
       </c>
       <c r="F6">
-        <v>1.04321931240688</v>
+        <v>1.043775520058196</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056532713092751</v>
+        <v>1.05687972804684</v>
       </c>
       <c r="J6">
-        <v>1.042229620818695</v>
+        <v>1.042605042341811</v>
       </c>
       <c r="K6">
-        <v>1.050694308715258</v>
+        <v>1.051268351994169</v>
       </c>
       <c r="L6">
-        <v>1.035624710155977</v>
+        <v>1.036394051423576</v>
       </c>
       <c r="M6">
-        <v>1.052574788055086</v>
+        <v>1.05312512755329</v>
       </c>
       <c r="N6">
-        <v>1.043709706425666</v>
+        <v>1.044085661090406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021842727563423</v>
+        <v>1.022998444403212</v>
       </c>
       <c r="D7">
-        <v>1.039634629096414</v>
+        <v>1.040844955449884</v>
       </c>
       <c r="E7">
-        <v>1.024339182815221</v>
+        <v>1.025805161074724</v>
       </c>
       <c r="F7">
-        <v>1.041284999035491</v>
+        <v>1.042515199063614</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055776594820778</v>
+        <v>1.056411115624131</v>
       </c>
       <c r="J7">
-        <v>1.040697837267664</v>
+        <v>1.041825716063115</v>
       </c>
       <c r="K7">
-        <v>1.049274272986871</v>
+        <v>1.050471352133563</v>
       </c>
       <c r="L7">
-        <v>1.034149562733672</v>
+        <v>1.03559890505694</v>
       </c>
       <c r="M7">
-        <v>1.050906588746227</v>
+        <v>1.052123376669046</v>
       </c>
       <c r="N7">
-        <v>1.042175747566294</v>
+        <v>1.043305228079004</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012861354692879</v>
+        <v>1.017381096308901</v>
       </c>
       <c r="D8">
-        <v>1.032397896935752</v>
+        <v>1.03635616525152</v>
       </c>
       <c r="E8">
-        <v>1.016845647209202</v>
+        <v>1.021308953087036</v>
       </c>
       <c r="F8">
-        <v>1.032980669777335</v>
+        <v>1.037152543032285</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052496006395027</v>
+        <v>1.054392065726659</v>
       </c>
       <c r="J8">
-        <v>1.034102942575654</v>
+        <v>1.038496849066551</v>
       </c>
       <c r="K8">
-        <v>1.04315619693215</v>
+        <v>1.047065198280632</v>
       </c>
       <c r="L8">
-        <v>1.027802167656825</v>
+        <v>1.032207814465695</v>
       </c>
       <c r="M8">
-        <v>1.043731686695646</v>
+        <v>1.047851720441482</v>
       </c>
       <c r="N8">
-        <v>1.035571487367377</v>
+        <v>1.039971633709479</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9959802005125272</v>
+        <v>1.007038018581983</v>
       </c>
       <c r="D9">
-        <v>1.01881707269761</v>
+        <v>1.02811079675412</v>
       </c>
       <c r="E9">
-        <v>1.002808497588242</v>
+        <v>1.013076815185635</v>
       </c>
       <c r="F9">
-        <v>1.017423961673413</v>
+        <v>1.027319903322656</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046218676742995</v>
+        <v>1.050595262511736</v>
       </c>
       <c r="J9">
-        <v>1.021675711212457</v>
+        <v>1.03234467096291</v>
       </c>
       <c r="K9">
-        <v>1.031612058849231</v>
+        <v>1.040763684854455</v>
       </c>
       <c r="L9">
-        <v>1.015856172628059</v>
+        <v>1.02596123407538</v>
       </c>
       <c r="M9">
-        <v>1.030240533888421</v>
+        <v>1.039984756406317</v>
       </c>
       <c r="N9">
-        <v>1.023126607910221</v>
+        <v>1.033810718807266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9838935310191431</v>
+        <v>0.9998123364489852</v>
       </c>
       <c r="D10">
-        <v>1.00911510782256</v>
+        <v>1.022366922398033</v>
       </c>
       <c r="E10">
-        <v>0.9927970906117418</v>
+        <v>1.007360216071474</v>
       </c>
       <c r="F10">
-        <v>1.006327315670445</v>
+        <v>1.020481140761828</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041652867765333</v>
+        <v>1.047891634737366</v>
       </c>
       <c r="J10">
-        <v>1.012761082960364</v>
+        <v>1.028033402004917</v>
       </c>
       <c r="K10">
-        <v>1.023321713629157</v>
+        <v>1.036343746519486</v>
       </c>
       <c r="L10">
-        <v>1.007297625153925</v>
+        <v>1.021597839107578</v>
       </c>
       <c r="M10">
-        <v>1.020583260564558</v>
+        <v>1.034490193016496</v>
       </c>
       <c r="N10">
-        <v>1.014199319863488</v>
+        <v>1.029493327352844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9784303868079707</v>
+        <v>0.9965976255620732</v>
       </c>
       <c r="D11">
-        <v>1.004736858468327</v>
+        <v>1.019816053177617</v>
       </c>
       <c r="E11">
-        <v>0.9882829189331579</v>
+        <v>1.004825723630279</v>
       </c>
       <c r="F11">
-        <v>1.001323210615152</v>
+        <v>1.017446303609771</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039573293680696</v>
+        <v>1.046677204187131</v>
       </c>
       <c r="J11">
-        <v>1.008728856003191</v>
+        <v>1.026112635501884</v>
       </c>
       <c r="K11">
-        <v>1.019569994052895</v>
+        <v>1.034373699492682</v>
       </c>
       <c r="L11">
-        <v>1.003429237549593</v>
+        <v>1.019657204092474</v>
       </c>
       <c r="M11">
-        <v>1.016220216189985</v>
+        <v>1.03204654109157</v>
       </c>
       <c r="N11">
-        <v>1.010161366681533</v>
+        <v>1.027569833141062</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9763635158412959</v>
+        <v>0.9953899324292939</v>
       </c>
       <c r="D12">
-        <v>1.003081666587281</v>
+        <v>1.018858502133316</v>
       </c>
       <c r="E12">
-        <v>0.9865768815592147</v>
+        <v>1.003874959257403</v>
       </c>
       <c r="F12">
-        <v>0.9994319002663518</v>
+        <v>1.016307395388336</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038784253037778</v>
+        <v>1.046219279091751</v>
       </c>
       <c r="J12">
-        <v>1.007203030049937</v>
+        <v>1.025390688240095</v>
       </c>
       <c r="K12">
-        <v>1.018150063924234</v>
+        <v>1.033633107089259</v>
       </c>
       <c r="L12">
-        <v>1.001965846303529</v>
+        <v>1.01892829580931</v>
       </c>
       <c r="M12">
-        <v>1.014569992269643</v>
+        <v>1.031128701139267</v>
       </c>
       <c r="N12">
-        <v>1.008633373880411</v>
+        <v>1.026846860631352</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9768086234177025</v>
+        <v>0.9956496140909309</v>
       </c>
       <c r="D13">
-        <v>1.003438059104433</v>
+        <v>1.019064362494914</v>
       </c>
       <c r="E13">
-        <v>0.9869441979829395</v>
+        <v>1.004079331719195</v>
       </c>
       <c r="F13">
-        <v>0.9998391121675806</v>
+        <v>1.016552231216015</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038954276503588</v>
+        <v>1.046317819080437</v>
       </c>
       <c r="J13">
-        <v>1.007531634006534</v>
+        <v>1.025545938944414</v>
       </c>
       <c r="K13">
-        <v>1.018455872800918</v>
+        <v>1.033792372727346</v>
       </c>
       <c r="L13">
-        <v>1.002280984197916</v>
+        <v>1.019085020493367</v>
       </c>
       <c r="M13">
-        <v>1.014925350908891</v>
+        <v>1.03132604856789</v>
       </c>
       <c r="N13">
-        <v>1.008962444492316</v>
+        <v>1.027002331809479</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9782603254532638</v>
+        <v>0.9964980790181657</v>
       </c>
       <c r="D14">
-        <v>1.004600643865777</v>
+        <v>1.019737109438161</v>
       </c>
       <c r="E14">
-        <v>0.9881425091489706</v>
+        <v>1.004747326419775</v>
       </c>
       <c r="F14">
-        <v>1.001167554980553</v>
+        <v>1.017352401904482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039508417231566</v>
+        <v>1.046639492879527</v>
       </c>
       <c r="J14">
-        <v>1.008603317301775</v>
+        <v>1.026053134590376</v>
       </c>
       <c r="K14">
-        <v>1.019453172920598</v>
+        <v>1.034312664341068</v>
       </c>
       <c r="L14">
-        <v>1.003308826746831</v>
+        <v>1.019597119153553</v>
       </c>
       <c r="M14">
-        <v>1.016084426467065</v>
+        <v>1.031970882235545</v>
       </c>
       <c r="N14">
-        <v>1.010035649700761</v>
+        <v>1.027510247731434</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9791496822652717</v>
+        <v>0.9970190217229778</v>
       </c>
       <c r="D15">
-        <v>1.005313046048579</v>
+        <v>1.020150265471056</v>
       </c>
       <c r="E15">
-        <v>0.9888768739556855</v>
+        <v>1.005157648220655</v>
       </c>
       <c r="F15">
-        <v>1.001981653201209</v>
+        <v>1.017843853925608</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039847604766073</v>
+        <v>1.046836773421516</v>
       </c>
       <c r="J15">
-        <v>1.009259825354028</v>
+        <v>1.026364497821743</v>
       </c>
       <c r="K15">
-        <v>1.020064082217635</v>
+        <v>1.034632051180494</v>
       </c>
       <c r="L15">
-        <v>1.00393853618041</v>
+        <v>1.019911559227084</v>
       </c>
       <c r="M15">
-        <v>1.016794574589128</v>
+        <v>1.032366824730141</v>
       </c>
       <c r="N15">
-        <v>1.010693090069751</v>
+        <v>1.027822053134303</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9842510072643644</v>
+        <v>1.000023817287605</v>
       </c>
       <c r="D16">
-        <v>1.00940175457941</v>
+        <v>1.022534833009429</v>
       </c>
       <c r="E16">
-        <v>0.9930927118000148</v>
+        <v>1.007527137488372</v>
       </c>
       <c r="F16">
-        <v>1.006655007042932</v>
+        <v>1.020680953767134</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041788623510784</v>
+        <v>1.047971289113372</v>
       </c>
       <c r="J16">
-        <v>1.013024878774576</v>
+        <v>1.028159708033914</v>
       </c>
       <c r="K16">
-        <v>1.023567121960415</v>
+        <v>1.036473275751624</v>
       </c>
       <c r="L16">
-        <v>1.007550761368052</v>
+        <v>1.021725521767949</v>
       </c>
       <c r="M16">
-        <v>1.020868806178758</v>
+        <v>1.034650972166611</v>
       </c>
       <c r="N16">
-        <v>1.014463490298013</v>
+        <v>1.029619812750888</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9873873874228755</v>
+        <v>1.001885161021066</v>
       </c>
       <c r="D17">
-        <v>1.011917511294031</v>
+        <v>1.024013223880402</v>
       </c>
       <c r="E17">
-        <v>0.9956876509882832</v>
+        <v>1.00899730471199</v>
       </c>
       <c r="F17">
-        <v>1.009531385792336</v>
+        <v>1.022440489642423</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042977923251543</v>
+        <v>1.048671051772306</v>
       </c>
       <c r="J17">
-        <v>1.015339029293812</v>
+        <v>1.029271087532567</v>
       </c>
       <c r="K17">
-        <v>1.025719760908895</v>
+        <v>1.037612918909797</v>
       </c>
       <c r="L17">
-        <v>1.00977171615804</v>
+        <v>1.022849396475684</v>
       </c>
       <c r="M17">
-        <v>1.023374334010155</v>
+        <v>1.036066172732199</v>
       </c>
       <c r="N17">
-        <v>1.016780927176423</v>
+        <v>1.030732770535908</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9891948686882222</v>
+        <v>1.002962608394699</v>
       </c>
       <c r="D18">
-        <v>1.013367977312465</v>
+        <v>1.024869428135994</v>
       </c>
       <c r="E18">
-        <v>0.9971841213996129</v>
+        <v>1.00984915159355</v>
       </c>
       <c r="F18">
-        <v>1.01119010453728</v>
+        <v>1.023459735866577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043661814561316</v>
+        <v>1.049075009463016</v>
       </c>
       <c r="J18">
-        <v>1.016672388800412</v>
+        <v>1.029914157287662</v>
       </c>
       <c r="K18">
-        <v>1.026959883792566</v>
+        <v>1.038272260005083</v>
       </c>
       <c r="L18">
-        <v>1.011051638245634</v>
+        <v>1.023500014280855</v>
       </c>
       <c r="M18">
-        <v>1.024818437833766</v>
+        <v>1.036885448410796</v>
       </c>
       <c r="N18">
-        <v>1.018116180206462</v>
+        <v>1.031376753523815</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.989807544655293</v>
+        <v>1.003328612291362</v>
       </c>
       <c r="D19">
-        <v>1.013859741827876</v>
+        <v>1.025160348022948</v>
       </c>
       <c r="E19">
-        <v>0.9976915433741427</v>
+        <v>1.01013865973618</v>
       </c>
       <c r="F19">
-        <v>1.011752532954134</v>
+        <v>1.023806091655071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043893374157143</v>
+        <v>1.049212043470888</v>
       </c>
       <c r="J19">
-        <v>1.017124303548936</v>
+        <v>1.030132560194737</v>
       </c>
       <c r="K19">
-        <v>1.027380166969133</v>
+        <v>1.038496174827451</v>
       </c>
       <c r="L19">
-        <v>1.0114854850163</v>
+        <v>1.023721034567495</v>
       </c>
       <c r="M19">
-        <v>1.025307967458418</v>
+        <v>1.037163764709363</v>
       </c>
       <c r="N19">
-        <v>1.018568736725764</v>
+        <v>1.03159546658807</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9870531718163021</v>
+        <v>1.001686313929896</v>
       </c>
       <c r="D20">
-        <v>1.011649361459658</v>
+        <v>1.023855242447604</v>
       </c>
       <c r="E20">
-        <v>0.9954110248493145</v>
+        <v>1.0088401600329</v>
       </c>
       <c r="F20">
-        <v>1.009224763405673</v>
+        <v>1.022252442520204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042851345170174</v>
+        <v>1.048596410320601</v>
       </c>
       <c r="J20">
-        <v>1.015092459029489</v>
+        <v>1.029152385413397</v>
       </c>
       <c r="K20">
-        <v>1.025490417765507</v>
+        <v>1.037491206581938</v>
       </c>
       <c r="L20">
-        <v>1.0095350486726</v>
+        <v>1.022729326775183</v>
       </c>
       <c r="M20">
-        <v>1.023107322969068</v>
+        <v>1.035914978362537</v>
       </c>
       <c r="N20">
-        <v>1.016534006754043</v>
+        <v>1.030613899846113</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9778339008685973</v>
+        <v>0.9962486086603873</v>
       </c>
       <c r="D21">
-        <v>1.00425910959258</v>
+        <v>1.019539283434481</v>
       </c>
       <c r="E21">
-        <v>0.9877904648060218</v>
+        <v>1.004550880262659</v>
       </c>
       <c r="F21">
-        <v>1.000777283373287</v>
+        <v>1.017117097564694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039345704940423</v>
+        <v>1.046544958719302</v>
       </c>
       <c r="J21">
-        <v>1.008288527511201</v>
+        <v>1.025904015651708</v>
       </c>
       <c r="K21">
-        <v>1.019160238619506</v>
+        <v>1.034159698403601</v>
       </c>
       <c r="L21">
-        <v>1.003006902313803</v>
+        <v>1.019446544722104</v>
       </c>
       <c r="M21">
-        <v>1.015743944831269</v>
+        <v>1.031781279179621</v>
       </c>
       <c r="N21">
-        <v>1.009720412872578</v>
+        <v>1.027360917026768</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9718178966412113</v>
+        <v>0.9927506064040547</v>
       </c>
       <c r="D22">
-        <v>0.9994439262355254</v>
+        <v>1.016767298554187</v>
       </c>
       <c r="E22">
-        <v>0.9828283668177085</v>
+        <v>1.001799750182552</v>
       </c>
       <c r="F22">
-        <v>0.9952760668520559</v>
+        <v>1.013820675305735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037044862563766</v>
+        <v>1.045215463224803</v>
       </c>
       <c r="J22">
-        <v>1.003846874464603</v>
+        <v>1.023812313457457</v>
       </c>
       <c r="K22">
-        <v>1.015026407110365</v>
+        <v>1.032013752719348</v>
       </c>
       <c r="L22">
-        <v>0.9987478487263096</v>
+        <v>1.017335637784478</v>
       </c>
       <c r="M22">
-        <v>1.010941690256209</v>
+        <v>1.029123225446208</v>
       </c>
       <c r="N22">
-        <v>1.005272452169188</v>
+        <v>1.025266244375481</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9750290497173415</v>
+        <v>0.9946127058260124</v>
       </c>
       <c r="D23">
-        <v>1.002013370004854</v>
+        <v>1.018242477783548</v>
       </c>
       <c r="E23">
-        <v>0.9854759178127624</v>
+        <v>1.003263480899126</v>
       </c>
       <c r="F23">
-        <v>0.9982113386671759</v>
+        <v>1.015574783603308</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038274184898976</v>
+        <v>1.04592410516844</v>
       </c>
       <c r="J23">
-        <v>1.006217813904748</v>
+        <v>1.024925974021391</v>
       </c>
       <c r="K23">
-        <v>1.017233157458241</v>
+        <v>1.03315635759126</v>
       </c>
       <c r="L23">
-        <v>1.001021069541563</v>
+        <v>1.018459244017595</v>
       </c>
       <c r="M23">
-        <v>1.013504677535652</v>
+        <v>1.030538071801394</v>
       </c>
       <c r="N23">
-        <v>1.007646758615289</v>
+        <v>1.026381486465154</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9872042569584465</v>
+        <v>1.001776189793742</v>
       </c>
       <c r="D24">
-        <v>1.01177057898398</v>
+        <v>1.023926646323662</v>
       </c>
       <c r="E24">
-        <v>0.9955360730064317</v>
+        <v>1.008911184459619</v>
       </c>
       <c r="F24">
-        <v>1.009363371459347</v>
+        <v>1.022337434700219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042908570575451</v>
+        <v>1.048630150546326</v>
       </c>
       <c r="J24">
-        <v>1.015203924175263</v>
+        <v>1.029206037768843</v>
       </c>
       <c r="K24">
-        <v>1.025594095730964</v>
+        <v>1.037546219783193</v>
       </c>
       <c r="L24">
-        <v>1.009642036338826</v>
+        <v>1.022783596279902</v>
       </c>
       <c r="M24">
-        <v>1.023228027140762</v>
+        <v>1.035983315675156</v>
       </c>
       <c r="N24">
-        <v>1.016645630193109</v>
+        <v>1.030667628394057</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00048127799219</v>
+        <v>1.009767749245143</v>
       </c>
       <c r="D25">
-        <v>1.022435029356066</v>
+        <v>1.030284306865945</v>
       </c>
       <c r="E25">
-        <v>1.006545133543863</v>
+        <v>1.015243712059661</v>
       </c>
       <c r="F25">
-        <v>1.021565276935463</v>
+        <v>1.029909858763862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047904902161793</v>
+        <v>1.051606312424716</v>
       </c>
       <c r="J25">
-        <v>1.024992456061357</v>
+        <v>1.033970802576048</v>
       </c>
       <c r="K25">
-        <v>1.034694774426912</v>
+        <v>1.042430008560919</v>
       </c>
       <c r="L25">
-        <v>1.019042687365727</v>
+        <v>1.027609909624002</v>
       </c>
       <c r="M25">
-        <v>1.033837795714504</v>
+        <v>1.042060950852794</v>
       </c>
       <c r="N25">
-        <v>1.026448062917242</v>
+        <v>1.035439159713815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015905875585149</v>
+        <v>1.010116907394673</v>
       </c>
       <c r="D2">
-        <v>1.035178536394344</v>
+        <v>1.030680531156336</v>
       </c>
       <c r="E2">
-        <v>1.020131173310555</v>
+        <v>1.015210210296509</v>
       </c>
       <c r="F2">
-        <v>1.035746895909417</v>
+        <v>1.03086726525042</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053856467611462</v>
+        <v>1.050708703356068</v>
       </c>
       <c r="J2">
-        <v>1.037621033997778</v>
+        <v>1.031999177455028</v>
       </c>
       <c r="K2">
-        <v>1.046168603819193</v>
+        <v>1.041728365037236</v>
       </c>
       <c r="L2">
-        <v>1.03131699605703</v>
+        <v>1.026461632943939</v>
       </c>
       <c r="M2">
-        <v>1.046729708681821</v>
+        <v>1.041912688418185</v>
       </c>
       <c r="N2">
-        <v>1.039094574882851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014571884586323</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040575850722029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020236330643866</v>
+        <v>1.013567767329861</v>
       </c>
       <c r="D3">
-        <v>1.038636868140546</v>
+        <v>1.033124692573706</v>
       </c>
       <c r="E3">
-        <v>1.023592034248932</v>
+        <v>1.017897719076036</v>
       </c>
       <c r="F3">
-        <v>1.039876271165938</v>
+        <v>1.033999837143655</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055422500935331</v>
+        <v>1.051663910580615</v>
       </c>
       <c r="J3">
-        <v>1.040190133062411</v>
+        <v>1.033695272838594</v>
       </c>
       <c r="K3">
-        <v>1.048798144726009</v>
+        <v>1.043350578816698</v>
       </c>
       <c r="L3">
-        <v>1.033931693609606</v>
+        <v>1.028306604470798</v>
       </c>
       <c r="M3">
-        <v>1.05002313698474</v>
+        <v>1.044215408638361</v>
       </c>
       <c r="N3">
-        <v>1.041667322362836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01513918262151</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041720233090388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022983135710683</v>
+        <v>1.015764064428992</v>
       </c>
       <c r="D4">
-        <v>1.04083271269967</v>
+        <v>1.034683964340789</v>
       </c>
       <c r="E4">
-        <v>1.025792882698019</v>
+        <v>1.019613867970005</v>
       </c>
       <c r="F4">
-        <v>1.042500562010986</v>
+        <v>1.035999457219904</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056405659595438</v>
+        <v>1.052262916159709</v>
       </c>
       <c r="J4">
-        <v>1.041816658170019</v>
+        <v>1.034772942669872</v>
       </c>
       <c r="K4">
-        <v>1.050462087836464</v>
+        <v>1.044381057899535</v>
       </c>
       <c r="L4">
-        <v>1.035589666186752</v>
+        <v>1.029481196773671</v>
       </c>
       <c r="M4">
-        <v>1.052111737560869</v>
+        <v>1.045681979683304</v>
       </c>
       <c r="N4">
-        <v>1.043296157322662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015499694908489</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042449758707654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024125102035095</v>
+        <v>1.016681658297388</v>
       </c>
       <c r="D5">
-        <v>1.041746113218839</v>
+        <v>1.035338220887491</v>
       </c>
       <c r="E5">
-        <v>1.026709182374561</v>
+        <v>1.020332527698177</v>
       </c>
       <c r="F5">
-        <v>1.043592770483927</v>
+        <v>1.036837433381128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056811923595129</v>
+        <v>1.052512432474762</v>
       </c>
       <c r="J5">
-        <v>1.042492112505334</v>
+        <v>1.035224089381172</v>
       </c>
       <c r="K5">
-        <v>1.051152871670115</v>
+        <v>1.044813670815735</v>
       </c>
       <c r="L5">
-        <v>1.036278798402498</v>
+        <v>1.029972989680814</v>
       </c>
       <c r="M5">
-        <v>1.052979924696424</v>
+        <v>1.046296718766068</v>
       </c>
       <c r="N5">
-        <v>1.043972570880608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015650899330246</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042762794373432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024316105731672</v>
+        <v>1.01683864208355</v>
       </c>
       <c r="D6">
-        <v>1.041898915072933</v>
+        <v>1.035452569007621</v>
       </c>
       <c r="E6">
-        <v>1.026862517362826</v>
+        <v>1.020455953636335</v>
       </c>
       <c r="F6">
-        <v>1.043775520058196</v>
+        <v>1.036982281852253</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05687972804684</v>
+        <v>1.052556735814246</v>
       </c>
       <c r="J6">
-        <v>1.042605042341811</v>
+        <v>1.035302898559177</v>
       </c>
       <c r="K6">
-        <v>1.051268351994169</v>
+        <v>1.04489079303891</v>
       </c>
       <c r="L6">
-        <v>1.036394051423576</v>
+        <v>1.030058337409995</v>
       </c>
       <c r="M6">
-        <v>1.05312512755329</v>
+        <v>1.046404087954386</v>
       </c>
       <c r="N6">
-        <v>1.044085661090406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015677640321718</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042826037645716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022998444403212</v>
+        <v>1.015785513813254</v>
       </c>
       <c r="D7">
-        <v>1.040844955449884</v>
+        <v>1.034705580019192</v>
       </c>
       <c r="E7">
-        <v>1.025805161074724</v>
+        <v>1.019631735391336</v>
       </c>
       <c r="F7">
-        <v>1.042515199063614</v>
+        <v>1.036022790522434</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056411115624131</v>
+        <v>1.052273423177555</v>
       </c>
       <c r="J7">
-        <v>1.041825716063115</v>
+        <v>1.034787919806677</v>
       </c>
       <c r="K7">
-        <v>1.050471352133563</v>
+        <v>1.044399566686136</v>
       </c>
       <c r="L7">
-        <v>1.03559890505694</v>
+        <v>1.029495934767651</v>
       </c>
       <c r="M7">
-        <v>1.052123376669046</v>
+        <v>1.045702192705125</v>
       </c>
       <c r="N7">
-        <v>1.043305228079004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015505602183826</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042482884627373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017381096308901</v>
+        <v>1.011302256939492</v>
       </c>
       <c r="D8">
-        <v>1.03635616525152</v>
+        <v>1.031527085883896</v>
       </c>
       <c r="E8">
-        <v>1.021308953087036</v>
+        <v>1.016133545368108</v>
       </c>
       <c r="F8">
-        <v>1.037152543032285</v>
+        <v>1.031946672516593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054392065726659</v>
+        <v>1.051044335998838</v>
       </c>
       <c r="J8">
-        <v>1.038496849066551</v>
+        <v>1.032587608580155</v>
       </c>
       <c r="K8">
-        <v>1.047065198280632</v>
+        <v>1.042296287773882</v>
       </c>
       <c r="L8">
-        <v>1.032207814465695</v>
+        <v>1.027099323744186</v>
       </c>
       <c r="M8">
-        <v>1.047851720441482</v>
+        <v>1.042710618636903</v>
       </c>
       <c r="N8">
-        <v>1.039971633709479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014769840027634</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041000255319783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007038018581983</v>
+        <v>1.003095676746227</v>
       </c>
       <c r="D9">
-        <v>1.02811079675412</v>
+        <v>1.025729442435621</v>
       </c>
       <c r="E9">
-        <v>1.013076815185635</v>
+        <v>1.009774596596622</v>
       </c>
       <c r="F9">
-        <v>1.027319903322656</v>
+        <v>1.024527148647228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050595262511736</v>
+        <v>1.04871797063365</v>
       </c>
       <c r="J9">
-        <v>1.03234467096291</v>
+        <v>1.028539590298074</v>
       </c>
       <c r="K9">
-        <v>1.040763684854455</v>
+        <v>1.038418427911916</v>
       </c>
       <c r="L9">
-        <v>1.02596123407538</v>
+        <v>1.022711053706136</v>
       </c>
       <c r="M9">
-        <v>1.039984756406317</v>
+        <v>1.037234440181888</v>
       </c>
       <c r="N9">
-        <v>1.033810718807266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013415260892577</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038255196970288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9998123364489852</v>
+        <v>0.9974148123543253</v>
       </c>
       <c r="D10">
-        <v>1.022366922398033</v>
+        <v>1.021741083535937</v>
       </c>
       <c r="E10">
-        <v>1.007360216071474</v>
+        <v>1.005406428522752</v>
       </c>
       <c r="F10">
-        <v>1.020481140761828</v>
+        <v>1.019426369129645</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047891634737366</v>
+        <v>1.047064308483243</v>
       </c>
       <c r="J10">
-        <v>1.028033402004917</v>
+        <v>1.025731375730733</v>
       </c>
       <c r="K10">
-        <v>1.036343746519486</v>
+        <v>1.035728586247531</v>
       </c>
       <c r="L10">
-        <v>1.021597839107578</v>
+        <v>1.019678749556991</v>
       </c>
       <c r="M10">
-        <v>1.034490193016496</v>
+        <v>1.03345351471468</v>
       </c>
       <c r="N10">
-        <v>1.029493327352844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012476397674455</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03637009972477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9965976255620732</v>
+        <v>0.9949120431195521</v>
       </c>
       <c r="D11">
-        <v>1.019816053177617</v>
+        <v>1.019997334881695</v>
       </c>
       <c r="E11">
-        <v>1.004825723630279</v>
+        <v>1.003491907595046</v>
       </c>
       <c r="F11">
-        <v>1.017446303609771</v>
+        <v>1.017192091923784</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046677204187131</v>
+        <v>1.046330868311728</v>
       </c>
       <c r="J11">
-        <v>1.026112635501884</v>
+        <v>1.024498029654601</v>
       </c>
       <c r="K11">
-        <v>1.034373699492682</v>
+        <v>1.034551733630983</v>
       </c>
       <c r="L11">
-        <v>1.019657204092474</v>
+        <v>1.018348270738848</v>
       </c>
       <c r="M11">
-        <v>1.03204654109157</v>
+        <v>1.031796913636644</v>
       </c>
       <c r="N11">
-        <v>1.027569833141062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012065514443331</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035570823388639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9953899324292939</v>
+        <v>0.9939675772512453</v>
       </c>
       <c r="D12">
-        <v>1.018858502133316</v>
+        <v>1.01933603646414</v>
       </c>
       <c r="E12">
-        <v>1.003874959257403</v>
+        <v>1.002769843752481</v>
       </c>
       <c r="F12">
-        <v>1.016307395388336</v>
+        <v>1.016347729016011</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046219279091751</v>
+        <v>1.046049661788088</v>
       </c>
       <c r="J12">
-        <v>1.025390688240095</v>
+        <v>1.024029452595549</v>
       </c>
       <c r="K12">
-        <v>1.033633107089259</v>
+        <v>1.034101933436105</v>
       </c>
       <c r="L12">
-        <v>1.01892829580931</v>
+        <v>1.017844169627317</v>
       </c>
       <c r="M12">
-        <v>1.031128701139267</v>
+        <v>1.031168294039864</v>
       </c>
       <c r="N12">
-        <v>1.026846860631352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011908713873861</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035252800496959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9956496140909309</v>
+        <v>0.9941693120917193</v>
       </c>
       <c r="D13">
-        <v>1.019064362494914</v>
+        <v>1.019476429965721</v>
       </c>
       <c r="E13">
-        <v>1.004079331719195</v>
+        <v>1.002923840200937</v>
       </c>
       <c r="F13">
-        <v>1.016552231216015</v>
+        <v>1.016527531413942</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046317819080437</v>
+        <v>1.046109225259988</v>
       </c>
       <c r="J13">
-        <v>1.025545938944414</v>
+        <v>1.024128971558007</v>
       </c>
       <c r="K13">
-        <v>1.033792372727346</v>
+        <v>1.034196954446581</v>
       </c>
       <c r="L13">
-        <v>1.019085020493367</v>
+        <v>1.017951391183673</v>
       </c>
       <c r="M13">
-        <v>1.03132604856789</v>
+        <v>1.031301800614497</v>
       </c>
       <c r="N13">
-        <v>1.027002331809479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011941872909262</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03531749169725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9964980790181657</v>
+        <v>0.994833616601782</v>
       </c>
       <c r="D14">
-        <v>1.019737109438161</v>
+        <v>1.01994205413979</v>
       </c>
       <c r="E14">
-        <v>1.004747326419775</v>
+        <v>1.003431847680037</v>
       </c>
       <c r="F14">
-        <v>1.017352401904482</v>
+        <v>1.017121740752185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046639492879527</v>
+        <v>1.046307304645272</v>
       </c>
       <c r="J14">
-        <v>1.026053134590376</v>
+        <v>1.024458877602455</v>
       </c>
       <c r="K14">
-        <v>1.034312664341068</v>
+        <v>1.034513932146588</v>
       </c>
       <c r="L14">
-        <v>1.019597119153553</v>
+        <v>1.018306217607721</v>
       </c>
       <c r="M14">
-        <v>1.031970882235545</v>
+        <v>1.0317443869317</v>
       </c>
       <c r="N14">
-        <v>1.027510247731434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012052352002472</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035543029180798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9970190217229778</v>
+        <v>0.995244250735197</v>
       </c>
       <c r="D15">
-        <v>1.020150265471056</v>
+        <v>1.020231623020542</v>
       </c>
       <c r="E15">
-        <v>1.005157648220655</v>
+        <v>1.00374638688583</v>
       </c>
       <c r="F15">
-        <v>1.017843853925608</v>
+        <v>1.017490198494837</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046836773421516</v>
+        <v>1.046430680506182</v>
       </c>
       <c r="J15">
-        <v>1.026364497821743</v>
+        <v>1.024663926169571</v>
       </c>
       <c r="K15">
-        <v>1.034632051180494</v>
+        <v>1.034711960359009</v>
       </c>
       <c r="L15">
-        <v>1.019911559227084</v>
+        <v>1.018526459174164</v>
       </c>
       <c r="M15">
-        <v>1.032366824730141</v>
+        <v>1.032019505894924</v>
       </c>
       <c r="N15">
-        <v>1.027822053134303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012121301660376</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035688910053316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000023817287605</v>
+        <v>0.9976010926929768</v>
       </c>
       <c r="D16">
-        <v>1.022534833009429</v>
+        <v>1.021885157432152</v>
       </c>
       <c r="E16">
-        <v>1.007527137488372</v>
+        <v>1.005552075785022</v>
       </c>
       <c r="F16">
-        <v>1.020680953767134</v>
+        <v>1.019601375291029</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047971289113372</v>
+        <v>1.047128591562432</v>
       </c>
       <c r="J16">
-        <v>1.028159708033914</v>
+        <v>1.025833121701367</v>
       </c>
       <c r="K16">
-        <v>1.036473275751624</v>
+        <v>1.035834648746035</v>
       </c>
       <c r="L16">
-        <v>1.021725521767949</v>
+        <v>1.019785418849099</v>
       </c>
       <c r="M16">
-        <v>1.034650972166611</v>
+        <v>1.033589849653306</v>
       </c>
       <c r="N16">
-        <v>1.029619812750888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012512713635753</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036485853768891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,81 +1138,93 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001885161021066</v>
+        <v>0.9990645396104996</v>
       </c>
       <c r="D17">
-        <v>1.024013223880402</v>
+        <v>1.022913451799903</v>
       </c>
       <c r="E17">
-        <v>1.00899730471199</v>
+        <v>1.006675520157072</v>
       </c>
       <c r="F17">
-        <v>1.022440489642423</v>
+        <v>1.020914524137037</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048671051772306</v>
+        <v>1.047559248853611</v>
       </c>
       <c r="J17">
-        <v>1.029271087532567</v>
+        <v>1.026558713706157</v>
       </c>
       <c r="K17">
-        <v>1.037612918909797</v>
+        <v>1.036531308788645</v>
       </c>
       <c r="L17">
-        <v>1.022849396475684</v>
+        <v>1.020567507032478</v>
       </c>
       <c r="M17">
-        <v>1.036066172732199</v>
+        <v>1.03456552103174</v>
       </c>
       <c r="N17">
-        <v>1.030732770535908</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012755643773732</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036981001347426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.002962608394699</v>
+        <v>0.9999063087207145</v>
       </c>
       <c r="D18">
-        <v>1.024869428135994</v>
+        <v>1.023501117328396</v>
       </c>
       <c r="E18">
-        <v>1.00984915159355</v>
+        <v>1.007321615116553</v>
       </c>
       <c r="F18">
-        <v>1.023459735866577</v>
+        <v>1.021668021514166</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049075009463016</v>
+        <v>1.047802920058316</v>
       </c>
       <c r="J18">
-        <v>1.029914157287662</v>
+        <v>1.026972856066735</v>
       </c>
       <c r="K18">
-        <v>1.038272260005083</v>
+        <v>1.036926157057875</v>
       </c>
       <c r="L18">
-        <v>1.023500014280855</v>
+        <v>1.021015153488989</v>
       </c>
       <c r="M18">
-        <v>1.036885448410796</v>
+        <v>1.035122932436185</v>
       </c>
       <c r="N18">
-        <v>1.031376753523815</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012893582046457</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037248546329048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003328612291362</v>
+        <v>1.000197521152247</v>
       </c>
       <c r="D19">
-        <v>1.025160348022948</v>
+        <v>1.02370789371688</v>
       </c>
       <c r="E19">
-        <v>1.01013865973618</v>
+        <v>1.00754595785398</v>
       </c>
       <c r="F19">
-        <v>1.023806091655071</v>
+        <v>1.02193086028926</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049212043470888</v>
+        <v>1.047889433960945</v>
       </c>
       <c r="J19">
-        <v>1.030132560194737</v>
+        <v>1.027118484843151</v>
       </c>
       <c r="K19">
-        <v>1.038496174827451</v>
+        <v>1.037067153740844</v>
       </c>
       <c r="L19">
-        <v>1.023721034567495</v>
+        <v>1.021171845604661</v>
       </c>
       <c r="M19">
-        <v>1.037163764709363</v>
+        <v>1.035318906499048</v>
       </c>
       <c r="N19">
-        <v>1.03159546658807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012942656704053</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037354620716723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001686313929896</v>
+        <v>0.9989075629644855</v>
       </c>
       <c r="D20">
-        <v>1.023855242447604</v>
+        <v>1.022802757643146</v>
       </c>
       <c r="E20">
-        <v>1.0088401600329</v>
+        <v>1.006554862133194</v>
       </c>
       <c r="F20">
-        <v>1.022252442520204</v>
+        <v>1.020773383684312</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048596410320601</v>
+        <v>1.047512919157021</v>
       </c>
       <c r="J20">
-        <v>1.029152385413397</v>
+        <v>1.026480661275907</v>
       </c>
       <c r="K20">
-        <v>1.037491206581938</v>
+        <v>1.036456158105844</v>
       </c>
       <c r="L20">
-        <v>1.022729326775183</v>
+        <v>1.020483423181137</v>
       </c>
       <c r="M20">
-        <v>1.035914978362537</v>
+        <v>1.034460535185024</v>
       </c>
       <c r="N20">
-        <v>1.030613899846113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012729454039803</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036926533253944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1326,93 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9962486086603873</v>
+        <v>0.9946452529520318</v>
       </c>
       <c r="D21">
-        <v>1.019539283434481</v>
+        <v>1.019814579949901</v>
       </c>
       <c r="E21">
-        <v>1.004550880262659</v>
+        <v>1.003288746518785</v>
       </c>
       <c r="F21">
-        <v>1.017117097564694</v>
+        <v>1.016955975882389</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046544958719302</v>
+        <v>1.046254373437712</v>
       </c>
       <c r="J21">
-        <v>1.025904015651708</v>
+        <v>1.024368572580152</v>
       </c>
       <c r="K21">
-        <v>1.034159698403601</v>
+        <v>1.034430037666825</v>
       </c>
       <c r="L21">
-        <v>1.019446544722104</v>
+        <v>1.018208079316121</v>
       </c>
       <c r="M21">
-        <v>1.031781279179621</v>
+        <v>1.031623078435604</v>
       </c>
       <c r="N21">
-        <v>1.027360917026768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012022906426719</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035497218361886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9927506064040547</v>
+        <v>0.991906642592579</v>
       </c>
       <c r="D22">
-        <v>1.016767298554187</v>
+        <v>1.017894177477801</v>
       </c>
       <c r="E22">
-        <v>1.001799750182552</v>
+        <v>1.001196516525896</v>
       </c>
       <c r="F22">
-        <v>1.013820675305735</v>
+        <v>1.014507321864367</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045215463224803</v>
+        <v>1.045432920254109</v>
       </c>
       <c r="J22">
-        <v>1.023812313457457</v>
+        <v>1.023006217644471</v>
       </c>
       <c r="K22">
-        <v>1.032013752719348</v>
+        <v>1.033119291030426</v>
       </c>
       <c r="L22">
-        <v>1.017335637784478</v>
+        <v>1.016744307397258</v>
       </c>
       <c r="M22">
-        <v>1.029123225446208</v>
+        <v>1.029796761958651</v>
       </c>
       <c r="N22">
-        <v>1.025266244375481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011566241566608</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034556971719025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9946127058260124</v>
+        <v>0.9933548885254764</v>
       </c>
       <c r="D23">
-        <v>1.018242477783548</v>
+        <v>1.01890374818701</v>
       </c>
       <c r="E23">
-        <v>1.003263480899126</v>
+        <v>1.002301034675783</v>
       </c>
       <c r="F23">
-        <v>1.015574783603308</v>
+        <v>1.015798206183801</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04592410516844</v>
+        <v>1.045864336406904</v>
       </c>
       <c r="J23">
-        <v>1.024925974021391</v>
+        <v>1.023722907209627</v>
       </c>
       <c r="K23">
-        <v>1.03315635759126</v>
+        <v>1.033805432742351</v>
       </c>
       <c r="L23">
-        <v>1.018459244017595</v>
+        <v>1.017515286906114</v>
       </c>
       <c r="M23">
-        <v>1.030538071801394</v>
+        <v>1.030757343382929</v>
       </c>
       <c r="N23">
-        <v>1.026381486465154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011805514743471</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035032474166745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001776189793742</v>
+        <v>0.9989646893985209</v>
       </c>
       <c r="D24">
-        <v>1.023926646323662</v>
+        <v>1.022833941229025</v>
       </c>
       <c r="E24">
-        <v>1.008911184459619</v>
+        <v>1.006596897322062</v>
       </c>
       <c r="F24">
-        <v>1.022337434700219</v>
+        <v>1.020819278799696</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048630150546326</v>
+        <v>1.04752337391517</v>
       </c>
       <c r="J24">
-        <v>1.029206037768843</v>
+        <v>1.02650265108362</v>
       </c>
       <c r="K24">
-        <v>1.037546219783193</v>
+        <v>1.036471591823612</v>
       </c>
       <c r="L24">
-        <v>1.022783596279902</v>
+        <v>1.020509146066589</v>
       </c>
       <c r="M24">
-        <v>1.035983315675156</v>
+        <v>1.034490389579881</v>
       </c>
       <c r="N24">
-        <v>1.030667628394057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012735309652537</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036910079223162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009767749245143</v>
+        <v>1.00526798837913</v>
       </c>
       <c r="D25">
-        <v>1.030284306865945</v>
+        <v>1.027269981926091</v>
       </c>
       <c r="E25">
-        <v>1.015243712059661</v>
+        <v>1.011454069626935</v>
       </c>
       <c r="F25">
-        <v>1.029909858763862</v>
+        <v>1.026491139316401</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051606312424716</v>
+        <v>1.049348638919157</v>
       </c>
       <c r="J25">
-        <v>1.033970802576048</v>
+        <v>1.029619355082359</v>
       </c>
       <c r="K25">
-        <v>1.042430008560919</v>
+        <v>1.039459217904435</v>
       </c>
       <c r="L25">
-        <v>1.027609909624002</v>
+        <v>1.023877140462383</v>
       </c>
       <c r="M25">
-        <v>1.042060950852794</v>
+        <v>1.038691676405248</v>
       </c>
       <c r="N25">
-        <v>1.035439159713815</v>
+        <v>1.013778041114739</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039019619201253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010116907394673</v>
+        <v>1.009514486111575</v>
       </c>
       <c r="D2">
-        <v>1.030680531156336</v>
+        <v>1.029513335341877</v>
       </c>
       <c r="E2">
-        <v>1.015210210296509</v>
+        <v>1.01469583858968</v>
       </c>
       <c r="F2">
-        <v>1.03086726525042</v>
+        <v>1.029811028967258</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050708703356068</v>
+        <v>1.050115619755489</v>
       </c>
       <c r="J2">
-        <v>1.031999177455028</v>
+        <v>1.031414297463897</v>
       </c>
       <c r="K2">
-        <v>1.041728365037236</v>
+        <v>1.04057626236959</v>
       </c>
       <c r="L2">
-        <v>1.026461632943939</v>
+        <v>1.025954164328316</v>
       </c>
       <c r="M2">
-        <v>1.041912688418185</v>
+        <v>1.040870102416352</v>
       </c>
       <c r="N2">
-        <v>1.014571884586323</v>
+        <v>1.015536388385306</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040575850722029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039769970368574</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02284272053044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013567767329861</v>
+        <v>1.012834647389075</v>
       </c>
       <c r="D3">
-        <v>1.033124692573706</v>
+        <v>1.031779386206731</v>
       </c>
       <c r="E3">
-        <v>1.017897719076036</v>
+        <v>1.017268866706326</v>
       </c>
       <c r="F3">
-        <v>1.033999837143655</v>
+        <v>1.032774671855323</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051663910580615</v>
+        <v>1.050969719262206</v>
       </c>
       <c r="J3">
-        <v>1.033695272838594</v>
+        <v>1.032981438589732</v>
       </c>
       <c r="K3">
-        <v>1.043350578816698</v>
+        <v>1.042021170952713</v>
       </c>
       <c r="L3">
-        <v>1.028306604470798</v>
+        <v>1.027685456182347</v>
       </c>
       <c r="M3">
-        <v>1.044215408638361</v>
+        <v>1.043004689621042</v>
       </c>
       <c r="N3">
-        <v>1.01513918262151</v>
+        <v>1.015952578617953</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041720233090388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040788706962884</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023128490442986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015764064428992</v>
+        <v>1.014948501815497</v>
       </c>
       <c r="D4">
-        <v>1.034683964340789</v>
+        <v>1.033225807956484</v>
       </c>
       <c r="E4">
-        <v>1.019613867970005</v>
+        <v>1.01891270842894</v>
       </c>
       <c r="F4">
-        <v>1.035999457219904</v>
+        <v>1.034667451764817</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052262916159709</v>
+        <v>1.051504568092069</v>
       </c>
       <c r="J4">
-        <v>1.034772942669872</v>
+        <v>1.033977401744022</v>
       </c>
       <c r="K4">
-        <v>1.044381057899535</v>
+        <v>1.042939106165166</v>
       </c>
       <c r="L4">
-        <v>1.029481196773671</v>
+        <v>1.028788109065739</v>
       </c>
       <c r="M4">
-        <v>1.045681979683304</v>
+        <v>1.044364728515161</v>
       </c>
       <c r="N4">
-        <v>1.015499694908489</v>
+        <v>1.01621715921566</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042449758707654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041438737302133</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023307765606978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016681658297388</v>
+        <v>1.015831804966334</v>
       </c>
       <c r="D5">
-        <v>1.035338220887491</v>
+        <v>1.033833074099233</v>
       </c>
       <c r="E5">
-        <v>1.020332527698177</v>
+        <v>1.019601268988735</v>
       </c>
       <c r="F5">
-        <v>1.036837433381128</v>
+        <v>1.035460971236156</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052512432474762</v>
+        <v>1.051727335488474</v>
       </c>
       <c r="J5">
-        <v>1.035224089381172</v>
+        <v>1.03439448408494</v>
       </c>
       <c r="K5">
-        <v>1.044813670815735</v>
+        <v>1.043324810398596</v>
       </c>
       <c r="L5">
-        <v>1.029972989680814</v>
+        <v>1.029249925136696</v>
       </c>
       <c r="M5">
-        <v>1.046296718766068</v>
+        <v>1.044935095510258</v>
       </c>
       <c r="N5">
-        <v>1.015650899330246</v>
+        <v>1.016328183619276</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042762794373432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04171931632034</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02338297442436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01683864208355</v>
+        <v>1.015982913717666</v>
       </c>
       <c r="D6">
-        <v>1.035452569007621</v>
+        <v>1.033939438515362</v>
       </c>
       <c r="E6">
-        <v>1.020455953636335</v>
+        <v>1.01971953147132</v>
       </c>
       <c r="F6">
-        <v>1.036982281852253</v>
+        <v>1.035598254190724</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052556735814246</v>
+        <v>1.051767078622021</v>
       </c>
       <c r="J6">
-        <v>1.035302898559177</v>
+        <v>1.034467454687039</v>
       </c>
       <c r="K6">
-        <v>1.04489079303891</v>
+        <v>1.043393961093225</v>
       </c>
       <c r="L6">
-        <v>1.030058337409995</v>
+        <v>1.029330129481458</v>
       </c>
       <c r="M6">
-        <v>1.046404087954386</v>
+        <v>1.045034912067788</v>
       </c>
       <c r="N6">
-        <v>1.015677640321718</v>
+        <v>1.016347859742148</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042826037645716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041777792459141</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02339695007302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015785513813254</v>
+        <v>1.014975801872868</v>
       </c>
       <c r="D7">
-        <v>1.034705580019192</v>
+        <v>1.033251374949885</v>
       </c>
       <c r="E7">
-        <v>1.019631735391336</v>
+        <v>1.018935788385113</v>
       </c>
       <c r="F7">
-        <v>1.036022790522434</v>
+        <v>1.034695256590244</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052273423177555</v>
+        <v>1.051518033540055</v>
       </c>
       <c r="J7">
-        <v>1.034787919806677</v>
+        <v>1.033998077392662</v>
       </c>
       <c r="K7">
-        <v>1.044399566686136</v>
+        <v>1.042961516065732</v>
       </c>
       <c r="L7">
-        <v>1.029495934767651</v>
+        <v>1.028807996510738</v>
       </c>
       <c r="M7">
-        <v>1.045702192705125</v>
+        <v>1.044389357741118</v>
       </c>
       <c r="N7">
-        <v>1.015505602183826</v>
+        <v>1.016249126500457</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042482884627373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04147662166229</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023314091838861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011302256939492</v>
+        <v>1.010675249402772</v>
       </c>
       <c r="D8">
-        <v>1.031527085883896</v>
+        <v>1.030313833278164</v>
       </c>
       <c r="E8">
-        <v>1.016133545368108</v>
+        <v>1.015597974550629</v>
       </c>
       <c r="F8">
-        <v>1.031946672516593</v>
+        <v>1.03084900572562</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051044335998838</v>
+        <v>1.050427365554689</v>
       </c>
       <c r="J8">
-        <v>1.032587608580155</v>
+        <v>1.031978253128153</v>
       </c>
       <c r="K8">
-        <v>1.042296287773882</v>
+        <v>1.041098262487828</v>
       </c>
       <c r="L8">
-        <v>1.027099323744186</v>
+        <v>1.026570726514233</v>
       </c>
       <c r="M8">
-        <v>1.042710618636903</v>
+        <v>1.041626712570434</v>
       </c>
       <c r="N8">
-        <v>1.014769840027634</v>
+        <v>1.015765396545233</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041000255319783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040164172051745</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022949810089218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003095676746227</v>
+        <v>1.002787183555718</v>
       </c>
       <c r="D9">
-        <v>1.025729442435621</v>
+        <v>1.02494492316577</v>
       </c>
       <c r="E9">
-        <v>1.009774596596622</v>
+        <v>1.009517410098726</v>
       </c>
       <c r="F9">
-        <v>1.024527148647228</v>
+        <v>1.023837756941653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04871797063365</v>
+        <v>1.048344131729557</v>
       </c>
       <c r="J9">
-        <v>1.028539590298074</v>
+        <v>1.028241901646109</v>
       </c>
       <c r="K9">
-        <v>1.038418427911916</v>
+        <v>1.037645847481343</v>
       </c>
       <c r="L9">
-        <v>1.022711053706136</v>
+        <v>1.022457938397542</v>
       </c>
       <c r="M9">
-        <v>1.037234440181888</v>
+        <v>1.0365555698497</v>
       </c>
       <c r="N9">
-        <v>1.013415260892577</v>
+        <v>1.014782266930779</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038255196970288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037719652425651</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022252952239065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9974148123543253</v>
+        <v>0.9973616712770873</v>
       </c>
       <c r="D10">
-        <v>1.021741083535937</v>
+        <v>1.021278595270575</v>
       </c>
       <c r="E10">
-        <v>1.005406428522752</v>
+        <v>1.005372151617729</v>
       </c>
       <c r="F10">
-        <v>1.019426369129645</v>
+        <v>1.019048342410237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047064308483243</v>
+        <v>1.046875727018796</v>
       </c>
       <c r="J10">
-        <v>1.025731375730733</v>
+        <v>1.025680358731212</v>
       </c>
       <c r="K10">
-        <v>1.035728586247531</v>
+        <v>1.035274000211362</v>
       </c>
       <c r="L10">
-        <v>1.019678749556991</v>
+        <v>1.019645082949997</v>
       </c>
       <c r="M10">
-        <v>1.03345351471468</v>
+        <v>1.03308198437293</v>
       </c>
       <c r="N10">
-        <v>1.012476397674455</v>
+        <v>1.014219249259634</v>
       </c>
       <c r="Q10">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R10">
-        <v>1.03637009972477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036061078132454</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02176536042341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9949120431195521</v>
+        <v>0.9950204461448718</v>
       </c>
       <c r="D11">
-        <v>1.019997334881695</v>
+        <v>1.01971277936451</v>
       </c>
       <c r="E11">
-        <v>1.003491907595046</v>
+        <v>1.003599416572239</v>
       </c>
       <c r="F11">
-        <v>1.017192091923784</v>
+        <v>1.016991332815071</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046330868311728</v>
+        <v>1.046249243118063</v>
       </c>
       <c r="J11">
-        <v>1.024498029654601</v>
+        <v>1.024601857733344</v>
       </c>
       <c r="K11">
-        <v>1.034551733630983</v>
+        <v>1.034272276445909</v>
       </c>
       <c r="L11">
-        <v>1.018348270738848</v>
+        <v>1.018453770909836</v>
       </c>
       <c r="M11">
-        <v>1.031796913636644</v>
+        <v>1.031599776947526</v>
       </c>
       <c r="N11">
-        <v>1.012065514443331</v>
+        <v>1.014162358653721</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035570823388639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035388845870647</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021562225427824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9939675772512453</v>
+        <v>0.9941415945544184</v>
       </c>
       <c r="D12">
-        <v>1.01933603646414</v>
+        <v>1.019121932376364</v>
       </c>
       <c r="E12">
-        <v>1.002769843752481</v>
+        <v>1.002935036930095</v>
       </c>
       <c r="F12">
-        <v>1.016347729016011</v>
+        <v>1.016217610061608</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046049661788088</v>
+        <v>1.046010723765183</v>
       </c>
       <c r="J12">
-        <v>1.024029452595549</v>
+        <v>1.024195978861437</v>
       </c>
       <c r="K12">
-        <v>1.034101933436105</v>
+        <v>1.033891732288066</v>
       </c>
       <c r="L12">
-        <v>1.017844169627317</v>
+        <v>1.018006221465832</v>
       </c>
       <c r="M12">
-        <v>1.031168294039864</v>
+        <v>1.031040564995109</v>
       </c>
       <c r="N12">
-        <v>1.011908713873861</v>
+        <v>1.014156395663713</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035252800496959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035119794688553</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021484159800924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9941693120917193</v>
+        <v>0.9943291289119602</v>
       </c>
       <c r="D13">
-        <v>1.019476429965721</v>
+        <v>1.019247123920534</v>
       </c>
       <c r="E13">
-        <v>1.002923840200937</v>
+        <v>1.003076552237744</v>
       </c>
       <c r="F13">
-        <v>1.016527531413942</v>
+        <v>1.016382158434762</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046109225259988</v>
+        <v>1.046061070301316</v>
       </c>
       <c r="J13">
-        <v>1.024128971558007</v>
+        <v>1.024281937673538</v>
       </c>
       <c r="K13">
-        <v>1.034196954446581</v>
+        <v>1.033971813077753</v>
       </c>
       <c r="L13">
-        <v>1.017951391183673</v>
+        <v>1.018101210091968</v>
       </c>
       <c r="M13">
-        <v>1.031301800614497</v>
+        <v>1.031159087612085</v>
       </c>
       <c r="N13">
-        <v>1.011941872909262</v>
+        <v>1.014156598576144</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03531749169725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035173679170223</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021500413065968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.994833616601782</v>
+        <v>0.9949473814777327</v>
       </c>
       <c r="D14">
-        <v>1.01994205413979</v>
+        <v>1.019663277591635</v>
       </c>
       <c r="E14">
-        <v>1.003431847680037</v>
+        <v>1.003544071585883</v>
       </c>
       <c r="F14">
-        <v>1.017121740752185</v>
+        <v>1.016926770660265</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046307304645272</v>
+        <v>1.04622917795621</v>
       </c>
       <c r="J14">
-        <v>1.024458877602455</v>
+        <v>1.024567833330304</v>
       </c>
       <c r="K14">
-        <v>1.034513932146588</v>
+        <v>1.034240157576157</v>
       </c>
       <c r="L14">
-        <v>1.018306217607721</v>
+        <v>1.018416341543732</v>
       </c>
       <c r="M14">
-        <v>1.0317443869317</v>
+        <v>1.031552940007263</v>
       </c>
       <c r="N14">
-        <v>1.012052352002472</v>
+        <v>1.014161380017244</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035543029180798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035364966058249</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021555561603662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.995244250735197</v>
+        <v>0.9953301236294</v>
       </c>
       <c r="D15">
-        <v>1.020231623020542</v>
+        <v>1.019922723653166</v>
       </c>
       <c r="E15">
-        <v>1.00374638688583</v>
+        <v>1.003834086541183</v>
       </c>
       <c r="F15">
-        <v>1.017490198494837</v>
+        <v>1.017265068693747</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046430680506182</v>
+        <v>1.04633432867754</v>
       </c>
       <c r="J15">
-        <v>1.024663926169571</v>
+        <v>1.024746200232116</v>
       </c>
       <c r="K15">
-        <v>1.034711960359009</v>
+        <v>1.034408561777618</v>
       </c>
       <c r="L15">
-        <v>1.018526459174164</v>
+        <v>1.0186125302999</v>
       </c>
       <c r="M15">
-        <v>1.032019505894924</v>
+        <v>1.03179841282214</v>
       </c>
       <c r="N15">
-        <v>1.012121301660376</v>
+        <v>1.014167217891759</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035688910053316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035490470269807</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021590519196328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9976010926929768</v>
+        <v>0.9975366957702313</v>
       </c>
       <c r="D16">
-        <v>1.021885157432152</v>
+        <v>1.021410319139453</v>
       </c>
       <c r="E16">
-        <v>1.005552075785022</v>
+        <v>1.005507849057116</v>
       </c>
       <c r="F16">
-        <v>1.019601375291029</v>
+        <v>1.019211021690653</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047128591562432</v>
+        <v>1.046932548097845</v>
       </c>
       <c r="J16">
-        <v>1.025833121701367</v>
+        <v>1.025771289194758</v>
       </c>
       <c r="K16">
-        <v>1.035834648746035</v>
+        <v>1.035367897172988</v>
       </c>
       <c r="L16">
-        <v>1.019785418849099</v>
+        <v>1.019741976978369</v>
       </c>
       <c r="M16">
-        <v>1.033589849653306</v>
+        <v>1.033206181790954</v>
       </c>
       <c r="N16">
-        <v>1.012512713635753</v>
+        <v>1.014232598771903</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036485853768891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036172214098536</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021787503785231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,93 +1279,111 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9990645396104996</v>
+        <v>0.9989165934986173</v>
       </c>
       <c r="D17">
-        <v>1.022913451799903</v>
+        <v>1.022342709511964</v>
       </c>
       <c r="E17">
-        <v>1.006675520157072</v>
+        <v>1.00655805842025</v>
       </c>
       <c r="F17">
-        <v>1.020914524137037</v>
+        <v>1.020429549475014</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047559248853611</v>
+        <v>1.047306288163568</v>
       </c>
       <c r="J17">
-        <v>1.026558713706157</v>
+        <v>1.026416469179137</v>
       </c>
       <c r="K17">
-        <v>1.036531308788645</v>
+        <v>1.035970011731489</v>
       </c>
       <c r="L17">
-        <v>1.020567507032478</v>
+        <v>1.020452069960182</v>
       </c>
       <c r="M17">
-        <v>1.03456552103174</v>
+        <v>1.034088611895086</v>
       </c>
       <c r="N17">
-        <v>1.012755643773732</v>
+        <v>1.014309808431115</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036981001347426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036600759660407</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021911213097697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9999063087207145</v>
+        <v>0.9997141936634619</v>
       </c>
       <c r="D18">
-        <v>1.023501117328396</v>
+        <v>1.02287795106242</v>
       </c>
       <c r="E18">
-        <v>1.007321615116553</v>
+        <v>1.007165503195549</v>
       </c>
       <c r="F18">
-        <v>1.021668021514166</v>
+        <v>1.021131717527165</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047802920058316</v>
+        <v>1.047519183952071</v>
       </c>
       <c r="J18">
-        <v>1.026972856066735</v>
+        <v>1.026788002767573</v>
       </c>
       <c r="K18">
-        <v>1.036926157057875</v>
+        <v>1.036313130158777</v>
       </c>
       <c r="L18">
-        <v>1.021015153488989</v>
+        <v>1.020861686473139</v>
       </c>
       <c r="M18">
-        <v>1.035122932436185</v>
+        <v>1.034595393850407</v>
       </c>
       <c r="N18">
-        <v>1.012893582046457</v>
+        <v>1.014367048806492</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037248546329048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036830592138606</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021980815030128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000197521152247</v>
+        <v>0.9999907636585765</v>
       </c>
       <c r="D19">
-        <v>1.02370789371688</v>
+        <v>1.023067137184391</v>
       </c>
       <c r="E19">
-        <v>1.00754595785398</v>
+        <v>1.007377024946191</v>
       </c>
       <c r="F19">
-        <v>1.02193086028926</v>
+        <v>1.0213773759494</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047889433960945</v>
+        <v>1.047595405190503</v>
       </c>
       <c r="J19">
-        <v>1.027118484843151</v>
+        <v>1.026919490659305</v>
       </c>
       <c r="K19">
-        <v>1.037067153740844</v>
+        <v>1.036436762030209</v>
       </c>
       <c r="L19">
-        <v>1.021171845604661</v>
+        <v>1.021005757896538</v>
       </c>
       <c r="M19">
-        <v>1.035318906499048</v>
+        <v>1.03477441433674</v>
       </c>
       <c r="N19">
-        <v>1.012942656704053</v>
+        <v>1.014390722058394</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037354620716723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036925010719797</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022006640036144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9989075629644855</v>
+        <v>0.9987681869159297</v>
       </c>
       <c r="D20">
-        <v>1.022802757643146</v>
+        <v>1.022242008282516</v>
       </c>
       <c r="E20">
-        <v>1.006554862133194</v>
+        <v>1.00644490951202</v>
       </c>
       <c r="F20">
-        <v>1.020773383684312</v>
+        <v>1.020298233330392</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047512919157021</v>
+        <v>1.04726586019252</v>
       </c>
       <c r="J20">
-        <v>1.026480661275907</v>
+        <v>1.026346675613091</v>
       </c>
       <c r="K20">
-        <v>1.036456158105844</v>
+        <v>1.035904717458362</v>
       </c>
       <c r="L20">
-        <v>1.020483423181137</v>
+        <v>1.020375371775101</v>
       </c>
       <c r="M20">
-        <v>1.034460535185024</v>
+        <v>1.033993312170843</v>
       </c>
       <c r="N20">
-        <v>1.012729454039803</v>
+        <v>1.014299902030355</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036926533253944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036553131218923</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021897721545293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9946452529520318</v>
+        <v>0.9947883996442353</v>
       </c>
       <c r="D21">
-        <v>1.019814579949901</v>
+        <v>1.019561929029502</v>
       </c>
       <c r="E21">
-        <v>1.003288746518785</v>
+        <v>1.003427052042094</v>
       </c>
       <c r="F21">
-        <v>1.016955975882389</v>
+        <v>1.016788419539645</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046254373437712</v>
+        <v>1.046193329003308</v>
       </c>
       <c r="J21">
-        <v>1.024368572580152</v>
+        <v>1.024505643386334</v>
       </c>
       <c r="K21">
-        <v>1.034430037666825</v>
+        <v>1.034181936089058</v>
       </c>
       <c r="L21">
-        <v>1.018208079316121</v>
+        <v>1.018343787452489</v>
       </c>
       <c r="M21">
-        <v>1.031623078435604</v>
+        <v>1.03145856096088</v>
       </c>
       <c r="N21">
-        <v>1.012022906426719</v>
+        <v>1.014227100199544</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035497218361886</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035338619565392</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021545931349459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.991906642592579</v>
+        <v>0.9922303760743875</v>
       </c>
       <c r="D22">
-        <v>1.017894177477801</v>
+        <v>1.017838589148244</v>
       </c>
       <c r="E22">
-        <v>1.001196516525896</v>
+        <v>1.001493473445437</v>
       </c>
       <c r="F22">
-        <v>1.014507321864367</v>
+        <v>1.01453674211725</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045432920254109</v>
+        <v>1.045490396276444</v>
       </c>
       <c r="J22">
-        <v>1.023006217644471</v>
+        <v>1.02331541454633</v>
       </c>
       <c r="K22">
-        <v>1.033119291030426</v>
+        <v>1.033064753973612</v>
       </c>
       <c r="L22">
-        <v>1.016744307397258</v>
+        <v>1.017035402279887</v>
       </c>
       <c r="M22">
-        <v>1.029796761958651</v>
+        <v>1.029825621013466</v>
       </c>
       <c r="N22">
-        <v>1.011566241566608</v>
+        <v>1.014167399326875</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034556971719025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034533933825578</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021314323775203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9933548885254764</v>
+        <v>0.9935725585755738</v>
       </c>
       <c r="D23">
-        <v>1.01890374818701</v>
+        <v>1.018736066457817</v>
       </c>
       <c r="E23">
-        <v>1.002301034675783</v>
+        <v>1.002504654296724</v>
       </c>
       <c r="F23">
-        <v>1.015798206183801</v>
+        <v>1.01571475365025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045864336406904</v>
+        <v>1.045853611555306</v>
       </c>
       <c r="J23">
-        <v>1.023722907209627</v>
+        <v>1.023931088308432</v>
       </c>
       <c r="K23">
-        <v>1.033805432742351</v>
+        <v>1.033640841473319</v>
       </c>
       <c r="L23">
-        <v>1.017515286906114</v>
+        <v>1.017714991007062</v>
       </c>
       <c r="M23">
-        <v>1.030757343382929</v>
+        <v>1.030675441046829</v>
       </c>
       <c r="N23">
-        <v>1.011805514743471</v>
+        <v>1.014154884684492</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035032474166745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034930679564762</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02143192069211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9989646893985209</v>
+        <v>0.9988222763014687</v>
       </c>
       <c r="D24">
-        <v>1.022833941229025</v>
+        <v>1.022269400090247</v>
       </c>
       <c r="E24">
-        <v>1.006596897322062</v>
+        <v>1.006484330512694</v>
       </c>
       <c r="F24">
-        <v>1.020819278799696</v>
+        <v>1.020340464894964</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04752337391517</v>
+        <v>1.047274139447317</v>
       </c>
       <c r="J24">
-        <v>1.02650265108362</v>
+        <v>1.02636573722739</v>
       </c>
       <c r="K24">
-        <v>1.036471591823612</v>
+        <v>1.035916409648226</v>
       </c>
       <c r="L24">
-        <v>1.020509146066589</v>
+        <v>1.020398522966379</v>
       </c>
       <c r="M24">
-        <v>1.034490389579881</v>
+        <v>1.03401955301071</v>
       </c>
       <c r="N24">
-        <v>1.012735309652537</v>
+        <v>1.014299881858873</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036910079223162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036531358593048</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021898195084839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00526798837913</v>
+        <v>1.004866047731112</v>
       </c>
       <c r="D25">
-        <v>1.027269981926091</v>
+        <v>1.026365567480755</v>
       </c>
       <c r="E25">
-        <v>1.011454069626935</v>
+        <v>1.011115140339431</v>
       </c>
       <c r="F25">
-        <v>1.026491139316401</v>
+        <v>1.025686370234151</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049348638919157</v>
+        <v>1.048905935570818</v>
       </c>
       <c r="J25">
-        <v>1.029619355082359</v>
+        <v>1.029230752394585</v>
       </c>
       <c r="K25">
-        <v>1.039459217904435</v>
+        <v>1.038567928669635</v>
       </c>
       <c r="L25">
-        <v>1.023877140462383</v>
+        <v>1.023543324125485</v>
       </c>
       <c r="M25">
-        <v>1.038691676405248</v>
+        <v>1.037898607495639</v>
       </c>
       <c r="N25">
-        <v>1.013778041114739</v>
+        <v>1.015013224160253</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039019619201253</v>
+        <v>1.038402944178212</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022442591389633</v>
       </c>
     </row>
   </sheetData>
